--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35434.64773512848</v>
+        <v>6946452.479870551</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35434.64773512848</v>
+        <v>6946452.479870551</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640235555</v>
+        <v>1146088.991920233</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640235555</v>
+        <v>1146088.991920233</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190724027.189862</v>
+        <v>49643084.0035293</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11843.07646002632</v>
+        <v>1330571.301286181</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21546.01824039091</v>
+        <v>2306588.507543941</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31248.96002075549</v>
+        <v>3282605.713801703</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41363.82945310894</v>
+        <v>4214471.468924661</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51611.3346204131</v>
+        <v>5158016.942039706</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61810.49016093576</v>
+        <v>6101562.415154749</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71980.88654221319</v>
+        <v>7045107.888269721</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82195.44103191335</v>
+        <v>7988653.36138471</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>92307.65563628562</v>
+        <v>8938780.203205114</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>102363.980144168</v>
+        <v>9887236.134922851</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>112420.3046520503</v>
+        <v>10835692.06664036</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122476.6291599318</v>
+        <v>11784147.99835812</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132532.9536678134</v>
+        <v>12732603.93007572</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142589.2781756952</v>
+        <v>13681059.86179336</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152645.162222654</v>
+        <v>14629515.79351057</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-1.132903218269348e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000001715</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
